--- a/final_report/Trace_Report_SBHP_initial.xlsx
+++ b/final_report/Trace_Report_SBHP_initial.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A68B5B-A37A-400E-88F7-BF52352FC809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55766F4C-8486-4C38-B1E3-EA176E3CE7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$2:$N$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Initial</t>
   </si>
@@ -68,34 +65,52 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>CGAX</t>
+  </si>
+  <si>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>BNGX</t>
   </si>
   <si>
-    <t>LA JUNTA</t>
-  </si>
-  <si>
-    <t>CO</t>
+    <t>KANSAS CITY</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
   <si>
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>HKCKDE</t>
+    <t>HLINKC</t>
   </si>
   <si>
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>LA SALLE</t>
-  </si>
-  <si>
-    <t>LDI601</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>SHORTLINE YARD</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>LTJ40N</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -107,16 +122,19 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 05:58:12 EDT, by WPJTOWN1.The search returned: 2 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:55:31 EDT, by WPJTOWN1.The search returned: 3 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>BNGX30307</t>
-  </si>
-  <si>
-    <t>UP74772</t>
+    <t>CGAX10167</t>
+  </si>
+  <si>
+    <t>BNGX30727</t>
+  </si>
+  <si>
+    <t>CGEX1941</t>
   </si>
 </sst>
 </file>
@@ -957,17 +975,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O4"/>
+      <selection activeCell="O3" sqref="O3:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1005,16 +1023,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1022,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>30307</v>
+        <v>10167</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1031,13 +1049,13 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>1442</v>
+        <v>1217</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1052,16 +1070,16 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>280000</v>
+        <v>273000</v>
       </c>
       <c r="M3">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="N3">
-        <v>216100</v>
+        <v>208800</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1069,50 +1087,96 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>74772</v>
+        <v>30727</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>1458</v>
+        <v>853</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4">
-        <v>185800</v>
+        <v>282200</v>
       </c>
       <c r="M4">
+        <v>64400</v>
+      </c>
+      <c r="N4">
+        <v>217800</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1941</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1913</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>198750</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>185800</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
+      <c r="N5">
+        <v>198750</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/final_report/Trace_Report_SBHP_initial.xlsx
+++ b/final_report/Trace_Report_SBHP_initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55766F4C-8486-4C38-B1E3-EA176E3CE7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE7B851-1B55-4CE3-895E-C9629C1F11E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Initial</t>
   </si>
@@ -65,52 +65,52 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>BNGX</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Arrive In-Transit</t>
+  </si>
+  <si>
+    <t>HKCKDE</t>
+  </si>
+  <si>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>CAIX</t>
+  </si>
+  <si>
+    <t>HUTCHINSON</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>LA SALLE</t>
+  </si>
+  <si>
+    <t>LDI602</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>CGAX</t>
   </si>
   <si>
-    <t>GREELEY</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Junction Delivery</t>
-  </si>
-  <si>
-    <t>GWR</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>BNGX</t>
-  </si>
-  <si>
-    <t>KANSAS CITY</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>HLINKC</t>
-  </si>
-  <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>CGEX</t>
-  </si>
-  <si>
-    <t>SHORTLINE YARD</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>LTJ40N</t>
+    <t>WINDSOR</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -122,19 +122,22 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/15/2023 05:55:31 EDT, by WPJTOWN1.The search returned: 3 events.</t>
+    <t>Description unknown, completed 06/21/2023 08:46:33 EDT, by WPJTOWN1.The search returned: 4 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>BNGX30727</t>
+  </si>
+  <si>
+    <t>CAIX541012</t>
+  </si>
+  <si>
+    <t>CGEX1941</t>
+  </si>
+  <si>
     <t>CGAX10167</t>
-  </si>
-  <si>
-    <t>BNGX30727</t>
-  </si>
-  <si>
-    <t>CGEX1941</t>
   </si>
 </sst>
 </file>
@@ -975,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O5"/>
+      <selection activeCell="O3" sqref="O3:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>10167</v>
+        <v>30727</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1052,10 +1055,10 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>1217</v>
+        <v>1259</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1070,13 +1073,13 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>273000</v>
+        <v>282200</v>
       </c>
       <c r="M3">
-        <v>64200</v>
+        <v>64400</v>
       </c>
       <c r="N3">
-        <v>208800</v>
+        <v>217800</v>
       </c>
       <c r="O3" t="s">
         <v>31</v>
@@ -1087,7 +1090,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>30727</v>
+        <v>541012</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1099,31 +1102,31 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>853</v>
+        <v>357</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4">
-        <v>282200</v>
+        <v>273100</v>
       </c>
       <c r="M4">
-        <v>64400</v>
+        <v>62900</v>
       </c>
       <c r="N4">
-        <v>217800</v>
+        <v>210200</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
@@ -1131,34 +1134,34 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>1941</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>1913</v>
+        <v>1855</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -1174,6 +1177,50 @@
       </c>
       <c r="O5" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>10167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1524</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>273000</v>
+      </c>
+      <c r="M6">
+        <v>64200</v>
+      </c>
+      <c r="N6">
+        <v>208800</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/final_report/Trace_Report_SBHP_initial.xlsx
+++ b/final_report/Trace_Report_SBHP_initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE7B851-1B55-4CE3-895E-C9629C1F11E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B4DBED5-78D1-4E8F-A7D7-9F793B1F5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="3885" yWindow="2835" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -83,30 +83,30 @@
     <t>LOVELAND</t>
   </si>
   <si>
+    <t>CGEX</t>
+  </si>
+  <si>
+    <t>GREELEY</t>
+  </si>
+  <si>
+    <t>Junction Delivery</t>
+  </si>
+  <si>
+    <t>GWR</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
     <t>CAIX</t>
   </si>
   <si>
-    <t>HUTCHINSON</t>
-  </si>
-  <si>
-    <t>KS</t>
+    <t>LA JUNTA</t>
   </si>
   <si>
     <t>Departure</t>
   </si>
   <si>
-    <t>CGEX</t>
-  </si>
-  <si>
-    <t>LA SALLE</t>
-  </si>
-  <si>
-    <t>LDI602</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
     <t>CGAX</t>
   </si>
   <si>
@@ -122,7 +122,7 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/21/2023 08:46:33 EDT, by WPJTOWN1.The search returned: 4 events.</t>
+    <t>Description unknown, completed 06/22/2023 11:08:20 EDT, by WPJTOWN1.The search returned: 4 events.</t>
   </si>
   <si>
     <t>Car_no</t>
@@ -131,10 +131,10 @@
     <t>BNGX30727</t>
   </si>
   <si>
+    <t>CGEX1941</t>
+  </si>
+  <si>
     <t>CAIX541012</t>
-  </si>
-  <si>
-    <t>CGEX1941</t>
   </si>
   <si>
     <t>CGAX10167</t>
@@ -1090,13 +1090,13 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>541012</v>
+        <v>1941</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -1105,28 +1105,28 @@
         <v>21</v>
       </c>
       <c r="G4">
-        <v>357</v>
+        <v>1419</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
       <c r="L4">
-        <v>273100</v>
+        <v>198750</v>
       </c>
       <c r="M4">
-        <v>62900</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>210200</v>
+        <v>198750</v>
       </c>
       <c r="O4" t="s">
         <v>32</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>1941</v>
+        <v>541012</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1149,31 +1149,31 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>1855</v>
+        <v>719</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5">
-        <v>198750</v>
+        <v>273100</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>62900</v>
       </c>
       <c r="N5">
-        <v>198750</v>
+        <v>210200</v>
       </c>
       <c r="O5" t="s">
         <v>33</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>

--- a/final_report/Trace_Report_SBHP_initial.xlsx
+++ b/final_report/Trace_Report_SBHP_initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4772C78D-B7B3-4031-912C-CE033497C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A81CFA6-4B3A-4F28-B22F-37190A025940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="-5985" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Initial</t>
   </si>
@@ -68,54 +68,15 @@
     <t>CGAX</t>
   </si>
   <si>
-    <t>GREELEY</t>
+    <t>JOHNSTOWN</t>
   </si>
   <si>
     <t>CO</t>
   </si>
   <si>
-    <t>Junction Received</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>BNGX</t>
-  </si>
-  <si>
     <t>Placed Actual</t>
   </si>
   <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>KELIM</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>FURX</t>
-  </si>
-  <si>
-    <t>BNSF</t>
-  </si>
-  <si>
-    <t>CNW</t>
-  </si>
-  <si>
-    <t>MARSHALLTOWN</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>MDMDM0</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -125,25 +86,13 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 10/03/2023 10:47:31 EDT, by WPJTOWN1.The search returned: 5 events.</t>
+    <t>Description unknown, completed 10/24/2023 07:51:28 EDT, by WPJTOWN1.The search returned: 1 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
     <t>CGAX10299</t>
-  </si>
-  <si>
-    <t>BNGX30881</t>
-  </si>
-  <si>
-    <t>UP90122</t>
-  </si>
-  <si>
-    <t>FURX854070</t>
-  </si>
-  <si>
-    <t>CNW174738</t>
   </si>
 </sst>
 </file>
@@ -984,17 +933,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O7"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1032,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1061,19 +1010,16 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>1558</v>
+        <v>1443</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -1088,189 +1034,7 @@
         <v>180100</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>30881</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1255</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>281900</v>
-      </c>
-      <c r="M4">
-        <v>64400</v>
-      </c>
-      <c r="N4">
-        <v>217500</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>90122</v>
-      </c>
-      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1919</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <v>215950</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>215950</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>854070</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>951</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>274900</v>
-      </c>
-      <c r="M6">
-        <v>63400</v>
-      </c>
-      <c r="N6">
-        <v>211500</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>174738</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1052</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>179750</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>179750</v>
-      </c>
-      <c r="O7" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
